--- a/fail.xlsx
+++ b/fail.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\capstone\svn\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>login fail</t>
   </si>
@@ -109,6 +104,39 @@
   </si>
   <si>
     <t>login success</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>albums result</t>
+  </si>
+  <si>
+    <t>Album[]</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>album not found</t>
+  </si>
+  <si>
+    <t>album result</t>
+  </si>
+  <si>
+    <t>Album</t>
+  </si>
+  <si>
+    <t>upload album success</t>
   </si>
 </sst>
 </file>
@@ -225,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,7 +288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,6 +649,56 @@
       </c>
       <c r="C14" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/fail.xlsx
+++ b/fail.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>login fail</t>
   </si>
@@ -112,9 +112,6 @@
     <t>010</t>
   </si>
   <si>
-    <t>albums result</t>
-  </si>
-  <si>
     <t>Album[]</t>
   </si>
   <si>
@@ -136,7 +133,40 @@
     <t>Album</t>
   </si>
   <si>
-    <t>upload album success</t>
+    <t>upload album successful</t>
+  </si>
+  <si>
+    <t>list album result</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>upload album fail</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>update album successful</t>
+  </si>
+  <si>
+    <t>update album fail</t>
+  </si>
+  <si>
+    <t>remove album successful</t>
+  </si>
+  <si>
+    <t>remove album fail</t>
   </si>
 </sst>
 </file>
@@ -497,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,10 +689,10 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
         <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,10 +700,10 @@
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,13 +711,13 @@
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
         <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,10 +725,50 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
